--- a/basics/passing_objects.xlsx
+++ b/basics/passing_objects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\xlslim-code-samples\basics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493492DD-2B54-4257-A2CC-1819350795AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F9F394-E622-4196-AA0D-54B4DE121EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{257F9B7E-B69A-46EF-8C88-E8306DB661FD}"/>
   </bookViews>
@@ -641,7 +641,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -658,8 +658,8 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B1" ca="1">LEFT(CELL("filename",B1),FIND("[",CELL("filename",B1))-1)</f>
-        <v>D:\github\xlslim-code-samples\basics\</v>
+        <f t="array" ref="B1">_xll.WorkbookLocation()</f>
+        <v>D:\github\xlslim-code-samples\basics</v>
       </c>
       <c r="G1" s="1"/>
     </row>
@@ -668,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f ca="1">B1&amp;"passing_objects.py"</f>
+        <f>B1&amp;"\passing_objects.py"</f>
         <v>D:\github\xlslim-code-samples\basics\passing_objects.py</v>
       </c>
       <c r="G2" s="1"/>
@@ -678,7 +678,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="str" cm="1">
-        <f t="array" aca="1" ref="B3" ca="1">_xll.RegisterPyModule(B2)</f>
+        <f t="array" ref="B3">_xll.RegisterPyModule(B2)</f>
         <v>Registered D:\github\xlslim-code-samples\basics\passing_objects.py</v>
       </c>
       <c r="G3" s="1"/>
@@ -745,19 +745,19 @@
       </c>
       <c r="B9" s="3" t="str" cm="1">
         <f t="array" ref="B9">_xll.create_person(B6,B7,B8)</f>
-        <v>[passing_objects.xlsx]Sheet1$B$9@25</v>
+        <v>[passing_objects.xlsx]Sheet1$B$9@35</v>
       </c>
       <c r="C9" s="3" t="str" cm="1">
         <f t="array" ref="C9">_xll.create_person(C6,C7,C8)</f>
-        <v>[passing_objects.xlsx]Sheet1$C$9@25</v>
+        <v>[passing_objects.xlsx]Sheet1$C$9@35</v>
       </c>
       <c r="D9" s="3" t="str" cm="1">
         <f t="array" ref="D9">_xll.create_person(D6,D7,D8)</f>
-        <v>[passing_objects.xlsx]Sheet1$D$9@25</v>
+        <v>[passing_objects.xlsx]Sheet1$D$9@35</v>
       </c>
       <c r="E9" s="3" t="str" cm="1">
         <f t="array" ref="E9">_xll.create_person(E6,E7,E8)</f>
-        <v>[passing_objects.xlsx]Sheet1$E$9@25</v>
+        <v>[passing_objects.xlsx]Sheet1$E$9@35</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -951,15 +951,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010056A28DAB99C48B469009752D21F8474A" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3725108ba1e248dd961cbde49d36f75">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a95c0ba0-d2e6-4b25-b7d5-a719ecc5544a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="58a034177a2e5a667d336d2ca3036430" ns3:_="">
     <xsd:import namespace="a95c0ba0-d2e6-4b25-b7d5-a719ecc5544a"/>
@@ -1091,6 +1082,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B898F4E-8707-4CA2-9F8B-513D2A3B8BD6}">
   <ds:schemaRefs>
@@ -1108,14 +1108,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FE1A4A2-BF99-4D94-B73F-D9211460B53D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5C9D94B-68A3-4C5A-8543-29DBB1AA8066}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1131,4 +1123,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FE1A4A2-BF99-4D94-B73F-D9211460B53D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/basics/passing_objects.xlsx
+++ b/basics/passing_objects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\xlslim-code-samples\basics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F9F394-E622-4196-AA0D-54B4DE121EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DB5AA6-B76E-43D4-947F-1704D8D87F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{257F9B7E-B69A-46EF-8C88-E8306DB661FD}"/>
   </bookViews>
@@ -641,7 +641,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -745,19 +745,19 @@
       </c>
       <c r="B9" s="3" t="str" cm="1">
         <f t="array" ref="B9">_xll.create_person(B6,B7,B8)</f>
-        <v>[passing_objects.xlsx]Sheet1$B$9@35</v>
+        <v>[passing_objects.xlsx]Sheet1$B$9@1</v>
       </c>
       <c r="C9" s="3" t="str" cm="1">
         <f t="array" ref="C9">_xll.create_person(C6,C7,C8)</f>
-        <v>[passing_objects.xlsx]Sheet1$C$9@35</v>
+        <v>[passing_objects.xlsx]Sheet1$C$9@1</v>
       </c>
       <c r="D9" s="3" t="str" cm="1">
         <f t="array" ref="D9">_xll.create_person(D6,D7,D8)</f>
-        <v>[passing_objects.xlsx]Sheet1$D$9@35</v>
+        <v>[passing_objects.xlsx]Sheet1$D$9@1</v>
       </c>
       <c r="E9" s="3" t="str" cm="1">
         <f t="array" ref="E9">_xll.create_person(E6,E7,E8)</f>
-        <v>[passing_objects.xlsx]Sheet1$E$9@35</v>
+        <v>[passing_objects.xlsx]Sheet1$E$9@1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -945,9 +945,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1083,26 +1086,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B898F4E-8707-4CA2-9F8B-513D2A3B8BD6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FE1A4A2-BF99-4D94-B73F-D9211460B53D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a95c0ba0-d2e6-4b25-b7d5-a719ecc5544a"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1126,9 +1118,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FE1A4A2-BF99-4D94-B73F-D9211460B53D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B898F4E-8707-4CA2-9F8B-513D2A3B8BD6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a95c0ba0-d2e6-4b25-b7d5-a719ecc5544a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/basics/passing_objects.xlsx
+++ b/basics/passing_objects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\xlslim-code-samples\basics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DB5AA6-B76E-43D4-947F-1704D8D87F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1434933C-25DC-4A73-B8B8-23AB05772C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{257F9B7E-B69A-46EF-8C88-E8306DB661FD}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Workbook location</t>
   </si>
@@ -122,6 +122,9 @@
 These cache handles can then be passed to objects expecting Person objects. This is illustrated by the describe(..) function as shown in cells B10:E10
 A range of cache handles can be passed to functions, such as average_age(..), that expect a list of Person objects. This is shown in cell B11
 Note how xlSlim uses Python type hinting to know which functions expect and return Person objects. Also note how the code in passing_objects.py was not modified to work with xlSlim.</t>
+  </si>
+  <si>
+    <t>Here we create Person objects by directly constructing Python classes, no factory function is required.</t>
   </si>
 </sst>
 </file>
@@ -638,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774E7E1C-D275-4DD4-9028-FA14541EA3B8}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -651,9 +654,11 @@
     <col min="3" max="3" width="25.53515625" customWidth="1"/>
     <col min="4" max="4" width="24.15234375" customWidth="1"/>
     <col min="5" max="5" width="25.4609375" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -663,7 +668,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -673,22 +678,22 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="str" cm="1">
         <f t="array" ref="B3">_xll.RegisterPyModule(B2)</f>
-        <v>Registered D:\github\xlslim-code-samples\basics\passing_objects.py</v>
+        <v>Initialised the Python environment at C:\Users\russe\anaconda3\envs\py38. Registered D:\github\xlslim-code-samples\basics\passing_objects.py</v>
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -704,8 +709,15 @@
       <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -721,8 +733,13 @@
       <c r="E7" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -739,7 +756,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
@@ -759,8 +776,27 @@
         <f t="array" ref="E9">_xll.create_person(E6,E7,E8)</f>
         <v>[passing_objects.xlsx]Sheet1$E$9@1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="3" t="str" cm="1">
+        <f t="array" ref="H9">_xll.Person(B6,B7,B8)</f>
+        <v>[passing_objects.xlsx]Sheet1$H$9@1</v>
+      </c>
+      <c r="I9" s="3" t="str" cm="1">
+        <f t="array" ref="I9">_xll.Person(C6,C7,C8)</f>
+        <v>[passing_objects.xlsx]Sheet1$I$9@1</v>
+      </c>
+      <c r="J9" s="3" t="str" cm="1">
+        <f t="array" ref="J9">_xll.Person(D6,D7,D8)</f>
+        <v>[passing_objects.xlsx]Sheet1$J$9@1</v>
+      </c>
+      <c r="K9" s="3" t="str" cm="1">
+        <f t="array" ref="K9">_xll.Person(E6,E7,E8)</f>
+        <v>[passing_objects.xlsx]Sheet1$K$9@1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
@@ -780,8 +816,29 @@
         <f t="array" ref="E10">_xll.describe(E9)</f>
         <v>Mary Williams is 18 years old.</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="3" t="str" cm="1">
+        <f t="array" ref="H10">_xll.describe(H9)</f>
+        <v>Bob Smith is 25 years old.</v>
+      </c>
+      <c r="I10" s="3" t="str" cm="1">
+        <f t="array" ref="I10">_xll.describe(I9)</f>
+        <v>Alice Jones is 52 years old.</v>
+      </c>
+      <c r="J10" s="3" t="str" cm="1">
+        <f t="array" ref="J10">_xll.describe(J9)</f>
+        <v>John Harris is 33 years old.</v>
+      </c>
+      <c r="K10" s="3" t="str" cm="1">
+        <f t="array" ref="K10">_xll.describe(K9)</f>
+        <v>Mary Williams is 18 years old.</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
@@ -789,11 +846,18 @@
         <f t="array" ref="B11">_xll.average_age(B9:E9)</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="3" cm="1">
+        <f t="array" ref="H11">_xll.average_age(H9:K9)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
@@ -805,7 +869,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -815,7 +879,7 @@
       <c r="G14" s="10"/>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -825,7 +889,7 @@
       <c r="G15" s="10"/>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -936,8 +1000,9 @@
       <c r="H26" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A13:H26"/>
+    <mergeCell ref="G6:K7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -945,12 +1010,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1086,15 +1148,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FE1A4A2-BF99-4D94-B73F-D9211460B53D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B898F4E-8707-4CA2-9F8B-513D2A3B8BD6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a95c0ba0-d2e6-4b25-b7d5-a719ecc5544a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1118,17 +1191,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B898F4E-8707-4CA2-9F8B-513D2A3B8BD6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FE1A4A2-BF99-4D94-B73F-D9211460B53D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a95c0ba0-d2e6-4b25-b7d5-a719ecc5544a"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>